--- a/data/trans_orig/IP19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{919713F9-20E8-41F1-B66E-61BEE86E3B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{996FC043-43F5-4F23-AACE-5EA67F73A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6159BD68-8F07-431D-91BC-A193898E0F5E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6295A80B-EF0D-4224-8616-09795E739DBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,11%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,39%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>92,89%</t>
+    <t>92,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>96,61%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -124,499 +124,517 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por otro motivo en 2016 (Tasa respuesta: 46,9%)</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por otro motivo en 2015 (Tasa respuesta: 46,9%)</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>98,89%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>7,35%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>92,65%</t>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>3,6%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,4%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D66C6E7-A5E5-4FA0-A6DC-922A2F688407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39279519-66E4-4E2C-B2F7-59CDE1218AF6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1340,10 +1358,10 @@
         <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,13 +1376,13 @@
         <v>237138</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>338</v>
@@ -1373,13 +1391,13 @@
         <v>224832</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
         <v>697</v>
@@ -1388,13 +1406,13 @@
         <v>461970</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,7 +1468,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1462,13 +1480,13 @@
         <v>1902</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1477,13 +1495,13 @@
         <v>1403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1492,13 +1510,13 @@
         <v>3304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,13 +1531,13 @@
         <v>71215</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>107</v>
@@ -1528,10 +1546,10 @@
         <v>74280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1543,13 +1561,13 @@
         <v>145496</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1635,13 @@
         <v>11090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1632,13 +1650,13 @@
         <v>4893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1647,13 +1665,13 @@
         <v>15982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,13 +1686,13 @@
         <v>350641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>515</v>
@@ -1683,13 +1701,13 @@
         <v>346037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -1698,13 +1716,13 @@
         <v>696679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1778,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1779,7 +1797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6797DB07-000B-4DB1-9FA1-BC32C59FF848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ED57A-7B1F-42F8-8CF0-DAA115CBBBAB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1796,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1903,13 +1921,13 @@
         <v>1720</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -1918,13 +1936,13 @@
         <v>609</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -1933,13 +1951,13 @@
         <v>2329</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,10 +1972,10 @@
         <v>41243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -1969,10 +1987,10 @@
         <v>45981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -1984,13 +2002,13 @@
         <v>87224</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2076,13 @@
         <v>3528</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2073,13 +2091,13 @@
         <v>4275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2088,13 +2106,13 @@
         <v>7803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,13 +2127,13 @@
         <v>231870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="7">
         <v>305</v>
@@ -2124,13 +2142,13 @@
         <v>213357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M8" s="7">
         <v>640</v>
@@ -2139,13 +2157,13 @@
         <v>445227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,7 +2219,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2231,13 @@
         <v>1328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2228,13 +2246,13 @@
         <v>764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2243,13 +2261,13 @@
         <v>2092</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,10 +2282,10 @@
         <v>80797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -2279,10 +2297,10 @@
         <v>81467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -2294,13 +2312,13 @@
         <v>162265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2386,13 @@
         <v>6576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2383,13 +2401,13 @@
         <v>5648</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2398,13 +2416,13 @@
         <v>12224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2437,13 @@
         <v>353911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>485</v>
@@ -2434,13 +2452,13 @@
         <v>340805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -2449,13 +2467,13 @@
         <v>694716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,7 +2529,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D613A-34DC-4AEC-AD4C-481AB9CD4B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9122F9-D1B0-42FC-AD03-03BD6CB0F647}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2547,7 +2565,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2660,7 +2678,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2669,13 +2687,13 @@
         <v>564</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2684,13 +2702,13 @@
         <v>564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2726,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2720,10 +2738,10 @@
         <v>21025</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2735,10 +2753,10 @@
         <v>47124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -2809,13 +2827,13 @@
         <v>4228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2824,13 +2842,13 @@
         <v>5266</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2839,13 +2857,13 @@
         <v>9494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2878,13 @@
         <v>240207</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>346</v>
@@ -2875,13 +2893,13 @@
         <v>235777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -2890,13 +2908,13 @@
         <v>475983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,7 +2970,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2964,13 +2982,13 @@
         <v>4388</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2979,13 +2997,13 @@
         <v>3012</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2994,13 +3012,13 @@
         <v>7400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3033,13 @@
         <v>81357</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H11" s="7">
         <v>115</v>
@@ -3030,13 +3048,13 @@
         <v>81539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -3045,13 +3063,13 @@
         <v>162895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3137,13 @@
         <v>8616</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3137,10 +3155,10 @@
         <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -3149,13 +3167,13 @@
         <v>17458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3188,13 @@
         <v>347662</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>492</v>
@@ -3185,13 +3203,13 @@
         <v>338340</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>973</v>
@@ -3200,13 +3218,13 @@
         <v>686002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3280,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{996FC043-43F5-4F23-AACE-5EA67F73A4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D029AEB3-6E6E-4C83-AFD1-F6B9241210AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6295A80B-EF0D-4224-8616-09795E739DBF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D7B016DF-5D8A-4646-A9FC-40E9B3588110}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="185">
   <si>
     <t>Menores según su última visita al dentista fue por otro motivo en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,202 +73,196 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>7,09%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>96,57%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
     <t>2,6%</t>
   </si>
   <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>93,02%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,5%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,76%</t>
@@ -277,7 +271,7 @@
     <t>96,68%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -286,181 +280,151 @@
     <t>Menores según su última visita al dentista fue por otro motivo en 2012 (Tasa respuesta: 48,12%)</t>
   </si>
   <si>
+    <t>1,31%</t>
+  </si>
+  <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -475,166 +439,160 @@
     <t>Menores según su última visita al dentista fue por otro motivo en 2016 (Tasa respuesta: 46,9%)</t>
   </si>
   <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
     <t>98,82%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
+    <t>95,06%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>10,24%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>89,76%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>97,58%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>96,45%</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39279519-66E4-4E2C-B2F7-59CDE1218AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516876EF-F9B6-47E0-A137-4637C498ED7B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1164,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>603</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1179,16 +1137,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1203,7 +1161,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1215,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>42288</v>
+        <v>46926</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1230,19 +1188,19 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I5" s="7">
-        <v>46926</v>
+        <v>42288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>133</v>
@@ -1257,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,34 +1224,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>134</v>
@@ -1302,13 +1260,13 @@
         <v>89816</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1319,10 +1277,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>8585</v>
+        <v>3490</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1334,10 +1292,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>3490</v>
+        <v>8585</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1328,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D8" s="7">
-        <v>237138</v>
+        <v>224832</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>36</v>
@@ -1385,10 +1343,10 @@
         <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="I8" s="7">
-        <v>224832</v>
+        <v>237138</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>39</v>
@@ -1421,34 +1379,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>715</v>
@@ -1457,13 +1415,13 @@
         <v>474045</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1474,34 +1432,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1902</v>
+        <v>1403</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1902</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1403</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1510,13 +1468,13 @@
         <v>3304</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,34 +1483,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7">
+        <v>74280</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>106</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>71215</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="7">
-        <v>107</v>
-      </c>
-      <c r="I11" s="7">
-        <v>74280</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>213</v>
@@ -1561,13 +1519,13 @@
         <v>145496</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,31 +1537,31 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>218</v>
@@ -1612,13 +1570,13 @@
         <v>148800</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,34 +1587,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4893</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="7">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>11090</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4893</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1665,13 +1623,13 @@
         <v>15982</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,34 +1638,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>515</v>
+      </c>
+      <c r="D14" s="7">
+        <v>346037</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
         <v>528</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>350641</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="7">
-        <v>515</v>
-      </c>
-      <c r="I14" s="7">
-        <v>346037</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>1043</v>
@@ -1716,13 +1674,13 @@
         <v>696679</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,34 +1689,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>1067</v>
@@ -1767,18 +1725,18 @@
         <v>712661</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1797,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27ED57A-7B1F-42F8-8CF0-DAA115CBBBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F7E4EF-F1D7-4FF3-856F-E5FB4D5F036D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1814,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1915,34 +1873,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>609</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1720</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>609</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -1951,13 +1909,13 @@
         <v>2329</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,34 +1924,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45981</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>57</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>41243</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>66</v>
-      </c>
-      <c r="I5" s="7">
-        <v>45981</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -2002,13 +1960,13 @@
         <v>87224</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,34 +1975,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46590</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>67</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46590</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>126</v>
@@ -2053,13 +2011,13 @@
         <v>89553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,34 +2028,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4275</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3528</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4275</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2106,13 +2064,13 @@
         <v>7803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,34 +2079,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>305</v>
+      </c>
+      <c r="D8" s="7">
+        <v>213357</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="7">
         <v>335</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>231870</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="7">
-        <v>305</v>
-      </c>
-      <c r="I8" s="7">
-        <v>213357</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>640</v>
@@ -2157,13 +2115,13 @@
         <v>445227</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,34 +2130,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>311</v>
+      </c>
+      <c r="D9" s="7">
+        <v>217632</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>340</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>235398</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>311</v>
-      </c>
-      <c r="I9" s="7">
-        <v>217632</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>651</v>
@@ -2208,13 +2166,13 @@
         <v>453030</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,34 +2183,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>764</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1328</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>764</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2261,13 +2219,13 @@
         <v>2092</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,34 +2234,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81467</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
         <v>116</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>80797</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>114</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81467</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>230</v>
@@ -2312,13 +2270,13 @@
         <v>162265</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,34 +2285,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>115</v>
+      </c>
+      <c r="D12" s="7">
+        <v>82231</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>115</v>
-      </c>
-      <c r="I12" s="7">
-        <v>82231</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
@@ -2363,13 +2321,13 @@
         <v>164357</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,34 +2338,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5648</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6576</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5648</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2416,13 +2374,13 @@
         <v>12224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,34 +2389,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>485</v>
+      </c>
+      <c r="D14" s="7">
+        <v>340805</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="7">
         <v>508</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>353911</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="7">
-        <v>485</v>
-      </c>
-      <c r="I14" s="7">
-        <v>340805</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>993</v>
@@ -2467,13 +2425,13 @@
         <v>694716</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,34 +2440,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>493</v>
+      </c>
+      <c r="D15" s="7">
+        <v>346453</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>517</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>360487</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>493</v>
-      </c>
-      <c r="I15" s="7">
-        <v>346453</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>1010</v>
@@ -2518,18 +2476,18 @@
         <v>706940</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9122F9-D1B0-42FC-AD03-03BD6CB0F647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DD51CD-FCC0-4BF0-8353-DAD20AF2EB23}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2666,34 +2624,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>564</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>564</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2702,13 +2660,13 @@
         <v>564</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,31 +2675,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21025</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>37</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>26098</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>21025</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2753,13 +2711,13 @@
         <v>47124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,34 +2726,34 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21589</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7">
         <v>37</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>26098</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21589</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>69</v>
@@ -2804,13 +2762,13 @@
         <v>47688</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,34 +2779,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5266</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4228</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5266</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -2857,13 +2815,13 @@
         <v>9494</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,34 +2830,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>346</v>
+      </c>
+      <c r="D8" s="7">
+        <v>235777</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="7">
         <v>330</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>240207</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="7">
-        <v>346</v>
-      </c>
-      <c r="I8" s="7">
-        <v>235777</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>676</v>
@@ -2908,13 +2866,13 @@
         <v>475983</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,34 +2881,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>353</v>
+      </c>
+      <c r="D9" s="7">
+        <v>241043</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7">
         <v>336</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>244435</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7">
-        <v>353</v>
-      </c>
-      <c r="I9" s="7">
-        <v>241043</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>689</v>
@@ -2959,13 +2917,13 @@
         <v>485477</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,34 +2934,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3012</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4388</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3012</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3012,13 +2970,13 @@
         <v>7400</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,34 +2985,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>115</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81539</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="7">
         <v>114</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>81357</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="7">
-        <v>115</v>
-      </c>
-      <c r="I11" s="7">
-        <v>81539</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
         <v>229</v>
@@ -3063,13 +3021,13 @@
         <v>162895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,34 +3036,34 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>119</v>
+      </c>
+      <c r="D12" s="7">
+        <v>84551</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="7">
         <v>120</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>85745</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="7">
-        <v>119</v>
-      </c>
-      <c r="I12" s="7">
-        <v>84551</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>239</v>
@@ -3114,13 +3072,13 @@
         <v>170295</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,31 +3092,31 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>8616</v>
+        <v>8842</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>8842</v>
+        <v>8616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -3167,13 +3125,13 @@
         <v>17458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,34 +3140,34 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
+        <v>492</v>
+      </c>
+      <c r="D14" s="7">
+        <v>338340</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="7">
         <v>481</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>347662</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="7">
-        <v>492</v>
-      </c>
-      <c r="I14" s="7">
-        <v>338340</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>973</v>
@@ -3218,13 +3176,13 @@
         <v>686002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,34 +3191,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>504</v>
+      </c>
+      <c r="D15" s="7">
+        <v>347182</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="7">
         <v>493</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>356278</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>504</v>
-      </c>
-      <c r="I15" s="7">
-        <v>347182</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>997</v>
@@ -3269,18 +3227,18 @@
         <v>703460</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
